--- a/medicine/Mort/Cimetière_ouest_de_Strasbourg/Cimetière_ouest_de_Strasbourg.xlsx
+++ b/medicine/Mort/Cimetière_ouest_de_Strasbourg/Cimetière_ouest_de_Strasbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ouest_de_Strasbourg</t>
+          <t>Cimetière_ouest_de_Strasbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière Ouest est un cimetière situé dans le quartier de Cronenbourg à Strasbourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ouest_de_Strasbourg</t>
+          <t>Cimetière_ouest_de_Strasbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La décision d’implanter un nouveau cimetière à l’ouest de Strasbourg, dans le faubourg de Cronenbourg, est prise en 1890, profitant de la disponibilité des terrains au lieu-dit Galgen Rain et du Burgfeld, entre les fortifications de la ville et les premiers immeubles.
-Le cimetière est ouvert en 1891 à l'époque de l'Empire allemand. Un monument aux morts de la guerre de 1870 y est érigé[1].
-Il est situé à l’ouest de la ville, à l’entrée du quartier de Cronenbourg[2].
+Le cimetière est ouvert en 1891 à l'époque de l'Empire allemand. Un monument aux morts de la guerre de 1870 y est érigé.
+Il est situé à l’ouest de la ville, à l’entrée du quartier de Cronenbourg.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ouest_de_Strasbourg</t>
+          <t>Cimetière_ouest_de_Strasbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les personnalités inhumées au cimetière ouest figurent les anciens maires de Strasbourg : Otto Back, maire de 1873 à 1880[3], Charles Hueber, maire de 1929 à 1935[4], et Marcel Rudloff, maire de 1983 à 1989[5], le philosophe et sociologue Georg Simmel[6], le comédien Germain Muller[7], le peintre Robert Kuven[8], le graveur Henri Bacher[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les personnalités inhumées au cimetière ouest figurent les anciens maires de Strasbourg : Otto Back, maire de 1873 à 1880, Charles Hueber, maire de 1929 à 1935, et Marcel Rudloff, maire de 1983 à 1989, le philosophe et sociologue Georg Simmel, le comédien Germain Muller, le peintre Robert Kuven, le graveur Henri Bacher.
 	Dans les allées du cimetière ouest.
 			La sépulture du comédien Germain Muller.
 </t>
